--- a/node_xlsx/fromJary.od.xlsx
+++ b/node_xlsx/fromJary.od.xlsx
@@ -3,11 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="asdad11" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet data source" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="22" sheetId="1" r:id="rId1"/>
+    <sheet name="封面" sheetId="2" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
@@ -379,25 +376,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="asdad11"/>
-  <dimension ref="A1:A3"/>
+  <sheetPr codeName="22"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>sdads11</v>
+        <v>项目名称</v>
+      </c>
+      <c r="B1" t="str">
+        <v>项目地址</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>asdad11</v>
+        <v>分项</v>
+      </c>
+      <c r="B2" t="str">
+        <v>单位</v>
+      </c>
+      <c r="C2" t="str">
+        <v>计量</v>
+      </c>
+      <c r="D2" t="str">
+        <v>单价/元</v>
+      </c>
+      <c r="E2" t="str">
+        <v>价税小计/元</v>
+      </c>
+      <c r="F2" t="str">
+        <v>备注</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>asda11</v>
+        <v>1</v>
+      </c>
+      <c r="B3" t="str">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>2</v>
+      </c>
+      <c r="B4" t="str">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>3</v>
+      </c>
+      <c r="B5" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>4</v>
+      </c>
+      <c r="B6" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>5</v>
+      </c>
+      <c r="B7" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>合计大写</v>
       </c>
     </row>
   </sheetData>
@@ -406,69 +461,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet data source"/>
-  <dimension ref="A1:B3"/>
+  <sheetPr codeName="封面"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Yang</v>
-      </c>
-      <c r="B1">
-        <v>24</v>
+        <v>封面</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Wang</v>
-      </c>
-      <c r="B2">
-        <v>35</v>
+        <v>报价名称</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Zhang</v>
-      </c>
-      <c r="B3">
-        <v>20</v>
+        <v>项目地址</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>报价单位</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>报价日期</v>
       </c>
     </row>
   </sheetData>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData/>
-</worksheet>
 </file>